--- a/framework/Product Research/ProductResearchTemplate_V1.3.xlsx
+++ b/framework/Product Research/ProductResearchTemplate_V1.3.xlsx
@@ -37,12 +37,6 @@
     <t>Before you finalize on product go through at least 800 products</t>
   </si>
   <si>
-    <t xml:space="preserve"> Use Keepa to check product details</t>
-  </si>
-  <si>
-    <t>Track product for 7 days for 20 products using 999 technique</t>
-  </si>
-  <si>
     <t>You can use keyword planner and google trends to check the buying patterns - recommended</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>If more than 5 guys have product reviews more than 60 then it is a negative for the product. No competitor must have more than 200 reviews</t>
   </si>
   <si>
-    <t>Always check historical data on Jungle scout.Cross check jungle scout web app data against chrome extension data for sales details</t>
-  </si>
-  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -128,6 +119,15 @@
   </si>
   <si>
     <t>Does product have Estimated Monthly Sales above 249</t>
+  </si>
+  <si>
+    <t>Always check historical data on Jungle scout.Cross check jungle scout web app data against chrome extension data for sales details. EMS for the product must be healthy across all competitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Use Keepa to check product details and check how fast the stock runs out at sellers point</t>
+  </si>
+  <si>
+    <t>Track product for 7 days for chosen products using 999 technique. After tracking check if the sales are healthy with the particular seller</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5">
         <f>D2*C2</f>
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5">
         <f>D3*C3</f>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>2.5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F21" si="0">D4*C4</f>
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
@@ -612,7 +612,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -621,7 +621,7 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
@@ -631,7 +631,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5">
         <f>D7*C7</f>
@@ -650,7 +650,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -669,7 +669,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
@@ -710,7 +710,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5">
         <f>D11*C11</f>
@@ -729,7 +729,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5">
         <f>D12*C12</f>
@@ -750,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>15.5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
@@ -771,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -780,19 +780,19 @@
         <v>7</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
@@ -855,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -885,19 +885,19 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
@@ -918,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0.5</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
@@ -936,7 +936,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="9">
         <f>SUM(F2:F21)</f>
@@ -949,12 +949,12 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -985,34 +985,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
